--- a/Team-Data/2013-14/12-31-2013-14.xlsx
+++ b/Team-Data/2013-14/12-31-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J2" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.464</v>
+        <v>0.468</v>
       </c>
       <c r="L2" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="S2" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="V2" t="n">
         <v>15.2</v>
@@ -729,25 +796,25 @@
         <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA2" t="n">
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -759,31 +826,31 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -801,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -810,10 +877,10 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
         <v>18.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.35</v>
+        <v>0.354</v>
       </c>
       <c r="O3" t="n">
         <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
         <v>10.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U3" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="V3" t="n">
         <v>16</v>
@@ -917,25 +984,25 @@
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC3" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG3" t="n">
         <v>18</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -947,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -956,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -965,28 +1032,28 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV3" t="n">
         <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -1030,106 +1097,106 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="O4" t="n">
         <v>19.9</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19.7</v>
-      </c>
       <c r="P4" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R4" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>3.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.6</v>
+        <v>-5.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1141,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
         <v>4</v>
@@ -1153,19 +1220,19 @@
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX4" t="n">
         <v>27</v>
@@ -1174,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -1290,28 +1357,28 @@
         <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1353,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -1394,67 +1461,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.414</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="J6" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.423</v>
+        <v>0.425</v>
       </c>
       <c r="L6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.327</v>
+        <v>0.329</v>
       </c>
       <c r="O6" t="n">
         <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T6" t="n">
         <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
         <v>16.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y6" t="n">
         <v>6.6</v>
@@ -1466,25 +1533,25 @@
         <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.3</v>
+        <v>91.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1502,16 +1569,16 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>9</v>
@@ -1529,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX6" t="n">
         <v>13</v>
@@ -1538,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -1576,43 +1643,43 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
-        <v>85.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.363</v>
       </c>
       <c r="O7" t="n">
         <v>16.1</v>
       </c>
       <c r="P7" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.754</v>
@@ -1621,13 +1688,13 @@
         <v>11.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V7" t="n">
         <v>15.5</v>
@@ -1636,43 +1703,43 @@
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6.2</v>
+        <v>-5.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
@@ -1681,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="n">
         <v>13</v>
@@ -1693,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>10</v>
@@ -1705,22 +1772,22 @@
         <v>13</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW7" t="n">
         <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1866,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>28</v>
@@ -1881,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1890,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2027,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -2036,7 +2103,7 @@
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -2081,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2267,25 @@
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -2227,7 +2294,7 @@
         <v>27</v>
       </c>
       <c r="AM10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2251,25 +2318,25 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
       </c>
       <c r="AZ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA10" t="n">
         <v>14</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>15</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.606</v>
+        <v>0.594</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J11" t="n">
         <v>84.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.393</v>
+        <v>0.399</v>
       </c>
       <c r="O11" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
         <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="T11" t="n">
-        <v>46.6</v>
+        <v>46.3</v>
       </c>
       <c r="U11" t="n">
         <v>23</v>
@@ -2361,61 +2428,61 @@
         <v>17.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
         <v>4.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2424,7 +2491,7 @@
         <v>25</v>
       </c>
       <c r="AR11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
@@ -2442,19 +2509,19 @@
         <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA11" t="n">
         <v>18</v>
       </c>
       <c r="BB11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -2486,58 +2553,58 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.618</v>
+        <v>0.636</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K12" t="n">
         <v>0.474</v>
       </c>
       <c r="L12" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.694</v>
+        <v>0.696</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="T12" t="n">
         <v>45.2</v>
       </c>
       <c r="U12" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
@@ -2549,34 +2616,34 @@
         <v>6.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AB12" t="n">
         <v>105.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2615,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2630,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.833</v>
+        <v>0.828</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,19 +2753,19 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L13" t="n">
         <v>7.4</v>
       </c>
       <c r="M13" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.363</v>
+        <v>0.37</v>
       </c>
       <c r="O13" t="n">
         <v>18.5</v>
@@ -2707,55 +2774,55 @@
         <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R13" t="n">
         <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="T13" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W13" t="n">
         <v>7.6</v>
       </c>
       <c r="X13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>4.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
         <v>24</v>
@@ -2773,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2800,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>17</v>
@@ -2812,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>4.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2985,10 +3052,10 @@
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -3032,43 +3099,43 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.406</v>
+        <v>0.419</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M15" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O15" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P15" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0.739</v>
@@ -3077,22 +3144,22 @@
         <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X15" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y15" t="n">
         <v>4.5</v>
@@ -3101,22 +3168,22 @@
         <v>20.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -3134,7 +3201,7 @@
         <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
@@ -3146,10 +3213,10 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,16 +3225,16 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
         <v>5</v>
@@ -3176,10 +3243,10 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>-2.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,13 +3389,13 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>17</v>
@@ -3337,10 +3404,10 @@
         <v>8</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3352,13 +3419,13 @@
         <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>6.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -3578,73 +3645,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>0.226</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I18" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.348</v>
       </c>
       <c r="O18" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.777</v>
       </c>
       <c r="R18" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V18" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA18" t="n">
         <v>20.3</v>
@@ -3653,10 +3720,10 @@
         <v>92.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.5</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,58 +3735,58 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>18</v>
       </c>
       <c r="AN18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="n">
         <v>22</v>
       </c>
-      <c r="AO18" t="n">
-        <v>23</v>
-      </c>
       <c r="AP18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS18" t="n">
         <v>26</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>25</v>
-      </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ18" t="n">
         <v>17</v>
@@ -3728,10 +3795,10 @@
         <v>16</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3850,7 +3917,7 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4038,10 +4105,10 @@
         <v>3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -4059,19 +4126,19 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4269,22 @@
         <v>-4.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4229,19 +4296,19 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -4306,97 +4373,97 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
         <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.806</v>
+        <v>0.833</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
         <v>25.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R22" t="n">
         <v>10.9</v>
       </c>
       <c r="S22" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="T22" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>106.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4408,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM22" t="n">
         <v>24</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4441,7 +4508,7 @@
         <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,10 +4517,10 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.323</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O23" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R23" t="n">
         <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
         <v>7.8</v>
@@ -4551,43 +4618,43 @@
         <v>4.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
@@ -4599,28 +4666,28 @@
         <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
         <v>19</v>
       </c>
       <c r="AU23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV23" t="n">
         <v>20</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,13 +4696,13 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG24" t="n">
         <v>27</v>
@@ -4778,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>20</v>
@@ -4793,7 +4860,7 @@
         <v>7</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>12</v>
@@ -4951,7 +5018,7 @@
         <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4966,13 +5033,13 @@
         <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ25" t="n">
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4981,7 +5048,7 @@
         <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV25" t="n">
         <v>26</v>
@@ -5005,7 +5072,7 @@
         <v>9</v>
       </c>
       <c r="BC25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.781</v>
+        <v>0.774</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="J26" t="n">
-        <v>87.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
         <v>10.3</v>
       </c>
       <c r="M26" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.396</v>
+        <v>0.403</v>
       </c>
       <c r="O26" t="n">
         <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
         <v>33</v>
       </c>
       <c r="T26" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="W26" t="n">
         <v>5.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA26" t="n">
         <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>108.3</v>
+        <v>108.6</v>
       </c>
       <c r="AC26" t="n">
         <v>5.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -5130,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
         <v>11</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" t="n">
         <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.31</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
@@ -5246,31 +5313,31 @@
         <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O27" t="n">
         <v>19.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S27" t="n">
         <v>31</v>
       </c>
       <c r="T27" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
         <v>8.1</v>
@@ -5282,46 +5349,46 @@
         <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
         <v>22.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.5</v>
+        <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>24</v>
@@ -5333,22 +5400,22 @@
         <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW27" t="n">
         <v>12</v>
@@ -5357,10 +5424,10 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" t="n">
         <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.781</v>
+        <v>0.774</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
@@ -5416,40 +5483,40 @@
         <v>40.8</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>84.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
         <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="P28" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U28" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="V28" t="n">
         <v>14.5</v>
@@ -5458,28 +5525,28 @@
         <v>7.9</v>
       </c>
       <c r="X28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
         <v>17.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.1</v>
+        <v>103.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5506,37 +5573,37 @@
         <v>17</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
         <v>29</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -5580,103 +5647,103 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.483</v>
+        <v>0.464</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>82.8</v>
+        <v>83.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.434</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M29" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T29" t="n">
         <v>43.3</v>
       </c>
       <c r="U29" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V29" t="n">
         <v>14.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
         <v>22.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5691,7 +5758,7 @@
         <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>6</v>
@@ -5703,22 +5770,22 @@
         <v>6</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>15</v>
       </c>
       <c r="AU29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV29" t="n">
         <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5730,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -5870,16 +5937,16 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>27</v>
       </c>
       <c r="AP30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5888,22 +5955,22 @@
         <v>29</v>
       </c>
       <c r="AT30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>20</v>
@@ -5912,10 +5979,10 @@
         <v>17</v>
       </c>
       <c r="BB30" t="n">
+        <v>27</v>
+      </c>
+      <c r="BC30" t="n">
         <v>28</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>29</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6052,7 +6119,7 @@
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6061,16 +6128,16 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6091,10 +6158,10 @@
         <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-31-2013-14</t>
+          <t>2013-12-31</t>
         </is>
       </c>
     </row>
